--- a/biology/Botanique/Cephalotales/Cephalotales.xlsx
+++ b/biology/Botanique/Cephalotales/Cephalotales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cephalotacées est constituée de plantes dicotylédones ; elle ne comprend qu'un seul genre (Cephalotus) qui ne contient qu'une seule espèce : Cephalotus follicularis.
 C’est une plante carnivore passive du sud-ouest de l'Australie qui utilise un système d'urnes semblable aux urnes des Nepenthaceae mais contrairement à celles-ci, elle produit également des feuilles ordinaires à seul but photosynthétique.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cephalotus dérivé du grec κεφαλωτός / kefalôtos, « qui a une tête », dérivé de κεφαλή / kefalê, « tête », en référence au disque floral ressemblant à une tête et confondu avec les filets des étamines par l'auteur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cephalotus dérivé du grec κεφαλωτός / kefalôtos, « qui a une tête », dérivé de κεφαλή / kefalê, « tête », en référence au disque floral ressemblant à une tête et confondu avec les filets des étamines par l'auteur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 mai 2010)[2], NCBI  (13 mai 2010)[3] et DELTA Angio           (13 mai 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 mai 2010), NCBI  (13 mai 2010) et DELTA Angio           (13 mai 2010) :
 genre Cephalotus  Labill. (1806)
 Cephalotus follicularis  Labill. (1806)</t>
         </is>
